--- a/docs/mcode-r4/obf-TreatmentIntent-extension.xlsx
+++ b/docs/mcode-r4/obf-TreatmentIntent-extension.xlsx
@@ -216,7 +216,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/StructureDefinition/obf-TreatmentIntent-extension</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/obf-TreatmentIntent-extension</t>
   </si>
   <si>
     <t>Extension.valueCodeableConcept</t>
@@ -235,7 +235,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/odh/ValueSet/obf-TreatmentIntentVS</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/obf-TreatmentIntentVS</t>
   </si>
   <si>
     <t>Extension.value[x]</t>
@@ -420,7 +420,7 @@
     <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="18.9140625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="54.9609375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="57.58984375" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="40.03515625" customWidth="true" bestFit="true"/>
